--- a/template/personil-template.xlsx
+++ b/template/personil-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farriq\Documents\Projects\siretu\storage\app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farriq\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D839C-BBEF-4DF4-9CB4-2137DBF6F16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1D8D2-CECE-4559-B691-E1335BA07709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -64,13 +64,13 @@
     <t>MAPEL</t>
   </si>
   <si>
-    <t>QRCODE1</t>
-  </si>
-  <si>
     <t>FORWARDTO</t>
   </si>
   <si>
     <t>EMAIL</t>
+  </si>
+  <si>
+    <t>QRCODE</t>
   </si>
 </sst>
 </file>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +475,13 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
